--- a/d1106/score.xlsx
+++ b/d1106/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,322 +434,298 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>이름</t>
+          <t>학교</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>학교</t>
+          <t>키</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>키</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>SM특기</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>강나래</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>강나래</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>구로고</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>197</v>
+      </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
         <v>85</v>
       </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>85</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>강태원</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>강태원</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>구로고</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>184</v>
+      </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>강호림</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>가산고</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>168</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="n">
+        <v>75</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Javascript</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>김수찬</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>구로고</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>187</v>
+      </c>
+      <c r="D5" t="n">
         <v>40</v>
       </c>
-      <c r="F3" t="n">
-        <v>35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>강호림</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>김재욱</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>가산고</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>168</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>70</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Javascript</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>김수찬</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>구로고</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>187</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>70</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>김재욱</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>가산고</t>
-        </is>
+      <c r="C6" t="n">
+        <v>188</v>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>박동현</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>가산고</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>202</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95</v>
+      </c>
+      <c r="G7" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>박동현</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>가산고</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>202</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>박혜정</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>구로고</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>188</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>승근열</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>구로고</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>190</v>
+      </c>
+      <c r="D9" t="n">
         <v>100</v>
       </c>
-      <c r="G7" t="n">
+      <c r="E9" t="n">
+        <v>85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" t="n">
         <v>95</v>
       </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>박혜정</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>구로고</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>188</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F8" t="n">
-        <v>65</v>
-      </c>
-      <c r="G8" t="n">
-        <v>45</v>
-      </c>
-      <c r="H8" t="n">
-        <v>35</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>승근열</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>구로고</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>190</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>85</v>
-      </c>
-      <c r="G9" t="n">
-        <v>90</v>
-      </c>
-      <c r="H9" t="n">
-        <v>95</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>C#</t>
         </is>
